--- a/FRR_with_ATP_synthase_Model_Kramer/LaiskReactions1.xlsx
+++ b/FRR_with_ATP_synthase_Model_Kramer/LaiskReactions1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/Laisk-PSII/FRR_with_ATP_synthase_Model_Kramer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FBE10727-9731-B343-BF12-1FF1CD1FB330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2B41C6AC-2D7A-D448-BE2A-542683996646}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="11280" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="11280" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1381,8 +1381,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" zoomScale="130" workbookViewId="0">
-      <selection activeCell="A263" sqref="A263"/>
+    <sheetView tabSelected="1" topLeftCell="A251" zoomScale="130" workbookViewId="0">
+      <selection activeCell="B271" sqref="B271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3779,15 +3779,15 @@
         <v>298</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>299</v>
       </c>
-      <c r="B271" s="2" t="s">
-        <v>287</v>
+      <c r="B271" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">

--- a/FRR_with_ATP_synthase_Model_Kramer/LaiskReactions1.xlsx
+++ b/FRR_with_ATP_synthase_Model_Kramer/LaiskReactions1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/Laisk-PSII/FRR_with_ATP_synthase_Model_Kramer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Apostolos\Documents\GitHub\Laisk-PSII\FRR_with_ATP_synthase_Model_Kramer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2B41C6AC-2D7A-D448-BE2A-542683996646}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E8E20AA3-71C3-4FFB-B824-4BBD907E9D3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="11280" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="544" uniqueCount="302">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="538" uniqueCount="296">
   <si>
     <t xml:space="preserve">S0YoPoAo + PQ -&gt; S0YoPoAoBoo </t>
   </si>
@@ -813,24 +814,6 @@
   </si>
   <si>
     <t>kb6f/kEb6f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATP -&gt; ADP </t>
-  </si>
-  <si>
-    <t>kcbb_ATP</t>
-  </si>
-  <si>
-    <t>NADPH -&gt; NADP</t>
-  </si>
-  <si>
-    <t>kcbb_NADPH</t>
-  </si>
-  <si>
-    <t>9 ATP + 6 NADPH -&gt; 9 ADP + 6 NADP</t>
-  </si>
-  <si>
-    <t>kcbb</t>
   </si>
   <si>
     <t>2 Hs + PQ + 2 FDr -&gt; 2 Hl + PQH2 + 2 FDo</t>
@@ -1379,19 +1362,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G292"/>
+  <dimension ref="A1:G289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" zoomScale="130" workbookViewId="0">
-      <selection activeCell="B271" sqref="B271"/>
+    <sheetView tabSelected="1" topLeftCell="A258" zoomScale="130" workbookViewId="0">
+      <selection activeCell="A267" sqref="A267"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="6" max="6" width="34.83203125" customWidth="1"/>
+    <col min="1" max="1" width="38.69921875" customWidth="1"/>
+    <col min="6" max="6" width="34.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1400,7 +1383,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1409,7 +1392,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1418,7 +1401,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1427,7 +1410,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1436,7 +1419,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1445,7 +1428,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1454,7 +1437,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1463,7 +1446,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1472,7 +1455,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1481,7 +1464,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1490,7 +1473,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1499,7 +1482,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1508,7 +1491,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1517,7 +1500,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1526,7 +1509,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1535,7 +1518,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1544,7 +1527,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1553,7 +1536,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1562,7 +1545,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1571,7 +1554,7 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1580,7 +1563,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1589,7 +1572,7 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1598,7 +1581,7 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1607,7 +1590,7 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1616,7 +1599,7 @@
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1625,7 +1608,7 @@
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1634,7 +1617,7 @@
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1643,7 +1626,7 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1652,7 +1635,7 @@
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1661,7 +1644,7 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1670,7 +1653,7 @@
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1679,7 +1662,7 @@
       </c>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1688,7 +1671,7 @@
       </c>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1697,7 +1680,7 @@
       </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1706,7 +1689,7 @@
       </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -1715,7 +1698,7 @@
       </c>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -1724,7 +1707,7 @@
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1733,7 +1716,7 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -1742,7 +1725,7 @@
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -1750,7 +1733,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -1759,7 +1742,7 @@
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -1768,7 +1751,7 @@
       </c>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -1777,7 +1760,7 @@
       </c>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -1786,7 +1769,7 @@
       </c>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -1795,7 +1778,7 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -1804,7 +1787,7 @@
       </c>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -1813,7 +1796,7 @@
       </c>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -1822,7 +1805,7 @@
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -1831,7 +1814,7 @@
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -1840,7 +1823,7 @@
       </c>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -1849,7 +1832,7 @@
       </c>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -1858,7 +1841,7 @@
       </c>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -1867,7 +1850,7 @@
       </c>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -1876,7 +1859,7 @@
       </c>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -1885,7 +1868,7 @@
       </c>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -1893,7 +1876,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -1902,7 +1885,7 @@
       </c>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -1911,7 +1894,7 @@
       </c>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -1920,7 +1903,7 @@
       </c>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -1928,7 +1911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -1937,7 +1920,7 @@
       </c>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>70</v>
       </c>
@@ -1946,7 +1929,7 @@
       </c>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -1955,7 +1938,7 @@
       </c>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -1964,7 +1947,7 @@
       </c>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -1973,7 +1956,7 @@
       </c>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -1982,7 +1965,7 @@
       </c>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>75</v>
       </c>
@@ -1991,7 +1974,7 @@
       </c>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -2000,7 +1983,7 @@
       </c>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -2009,7 +1992,7 @@
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>78</v>
       </c>
@@ -2018,7 +2001,7 @@
       </c>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -2027,7 +2010,7 @@
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>80</v>
       </c>
@@ -2036,7 +2019,7 @@
       </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -2045,7 +2028,7 @@
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>83</v>
       </c>
@@ -2054,7 +2037,7 @@
       </c>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -2063,7 +2046,7 @@
       </c>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>85</v>
       </c>
@@ -2072,7 +2055,7 @@
       </c>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>86</v>
       </c>
@@ -2081,7 +2064,7 @@
       </c>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>88</v>
       </c>
@@ -2090,7 +2073,7 @@
       </c>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>89</v>
       </c>
@@ -2099,7 +2082,7 @@
       </c>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>90</v>
       </c>
@@ -2108,7 +2091,7 @@
       </c>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>91</v>
       </c>
@@ -2117,7 +2100,7 @@
       </c>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>92</v>
       </c>
@@ -2126,7 +2109,7 @@
       </c>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>93</v>
       </c>
@@ -2135,7 +2118,7 @@
       </c>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>94</v>
       </c>
@@ -2143,7 +2126,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>95</v>
       </c>
@@ -2152,7 +2135,7 @@
       </c>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>96</v>
       </c>
@@ -2161,7 +2144,7 @@
       </c>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>97</v>
       </c>
@@ -2170,7 +2153,7 @@
       </c>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>98</v>
       </c>
@@ -2179,7 +2162,7 @@
       </c>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>99</v>
       </c>
@@ -2188,7 +2171,7 @@
       </c>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>100</v>
       </c>
@@ -2197,7 +2180,7 @@
       </c>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>101</v>
       </c>
@@ -2206,7 +2189,7 @@
       </c>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>102</v>
       </c>
@@ -2214,7 +2197,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -2223,7 +2206,7 @@
       </c>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -2232,7 +2215,7 @@
       </c>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -2241,7 +2224,7 @@
       </c>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>106</v>
       </c>
@@ -2250,7 +2233,7 @@
       </c>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>107</v>
       </c>
@@ -2259,7 +2242,7 @@
       </c>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>108</v>
       </c>
@@ -2268,7 +2251,7 @@
       </c>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>109</v>
       </c>
@@ -2277,7 +2260,7 @@
       </c>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>110</v>
       </c>
@@ -2286,7 +2269,7 @@
       </c>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>111</v>
       </c>
@@ -2295,7 +2278,7 @@
       </c>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>112</v>
       </c>
@@ -2304,7 +2287,7 @@
       </c>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>113</v>
       </c>
@@ -2313,7 +2296,7 @@
       </c>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>114</v>
       </c>
@@ -2321,7 +2304,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>115</v>
       </c>
@@ -2330,7 +2313,7 @@
       </c>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>116</v>
       </c>
@@ -2339,7 +2322,7 @@
       </c>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>117</v>
       </c>
@@ -2348,7 +2331,7 @@
       </c>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>118</v>
       </c>
@@ -2357,7 +2340,7 @@
       </c>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>119</v>
       </c>
@@ -2366,7 +2349,7 @@
       </c>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>120</v>
       </c>
@@ -2375,7 +2358,7 @@
       </c>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>121</v>
       </c>
@@ -2384,7 +2367,7 @@
       </c>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>122</v>
       </c>
@@ -2393,7 +2376,7 @@
       </c>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>123</v>
       </c>
@@ -2402,7 +2385,7 @@
       </c>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>124</v>
       </c>
@@ -2411,7 +2394,7 @@
       </c>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>125</v>
       </c>
@@ -2420,7 +2403,7 @@
       </c>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>126</v>
       </c>
@@ -2429,7 +2412,7 @@
       </c>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>127</v>
       </c>
@@ -2438,7 +2421,7 @@
       </c>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>129</v>
       </c>
@@ -2447,7 +2430,7 @@
       </c>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>130</v>
       </c>
@@ -2456,7 +2439,7 @@
       </c>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>131</v>
       </c>
@@ -2465,7 +2448,7 @@
       </c>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>132</v>
       </c>
@@ -2474,7 +2457,7 @@
       </c>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>133</v>
       </c>
@@ -2483,7 +2466,7 @@
       </c>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>134</v>
       </c>
@@ -2492,7 +2475,7 @@
       </c>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>135</v>
       </c>
@@ -2501,7 +2484,7 @@
       </c>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>136</v>
       </c>
@@ -2510,7 +2493,7 @@
       </c>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>136</v>
       </c>
@@ -2519,7 +2502,7 @@
       </c>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>136</v>
       </c>
@@ -2528,7 +2511,7 @@
       </c>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>136</v>
       </c>
@@ -2537,7 +2520,7 @@
       </c>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>137</v>
       </c>
@@ -2546,7 +2529,7 @@
       </c>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>138</v>
       </c>
@@ -2555,7 +2538,7 @@
       </c>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>139</v>
       </c>
@@ -2564,7 +2547,7 @@
       </c>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>140</v>
       </c>
@@ -2573,7 +2556,7 @@
       </c>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>141</v>
       </c>
@@ -2582,7 +2565,7 @@
       </c>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>142</v>
       </c>
@@ -2591,7 +2574,7 @@
       </c>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>143</v>
       </c>
@@ -2600,7 +2583,7 @@
       </c>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>144</v>
       </c>
@@ -2609,7 +2592,7 @@
       </c>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>145</v>
       </c>
@@ -2618,7 +2601,7 @@
       </c>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>146</v>
       </c>
@@ -2627,7 +2610,7 @@
       </c>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>147</v>
       </c>
@@ -2636,7 +2619,7 @@
       </c>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>148</v>
       </c>
@@ -2644,7 +2627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>149</v>
       </c>
@@ -2653,7 +2636,7 @@
       </c>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>150</v>
       </c>
@@ -2662,7 +2645,7 @@
       </c>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>151</v>
       </c>
@@ -2671,7 +2654,7 @@
       </c>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>152</v>
       </c>
@@ -2680,7 +2663,7 @@
       </c>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>153</v>
       </c>
@@ -2689,7 +2672,7 @@
       </c>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>154</v>
       </c>
@@ -2698,7 +2681,7 @@
       </c>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>153</v>
       </c>
@@ -2707,7 +2690,7 @@
       </c>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>155</v>
       </c>
@@ -2715,7 +2698,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>156</v>
       </c>
@@ -2724,7 +2707,7 @@
       </c>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>158</v>
       </c>
@@ -2733,7 +2716,7 @@
       </c>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>159</v>
       </c>
@@ -2742,7 +2725,7 @@
       </c>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>160</v>
       </c>
@@ -2751,7 +2734,7 @@
       </c>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>161</v>
       </c>
@@ -2760,7 +2743,7 @@
       </c>
       <c r="G153" s="2"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>162</v>
       </c>
@@ -2769,7 +2752,7 @@
       </c>
       <c r="G154" s="2"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>161</v>
       </c>
@@ -2778,7 +2761,7 @@
       </c>
       <c r="G155" s="2"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>163</v>
       </c>
@@ -2786,7 +2769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>164</v>
       </c>
@@ -2795,7 +2778,7 @@
       </c>
       <c r="G157" s="1"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>165</v>
       </c>
@@ -2804,7 +2787,7 @@
       </c>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>166</v>
       </c>
@@ -2813,7 +2796,7 @@
       </c>
       <c r="G159" s="1"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>167</v>
       </c>
@@ -2822,7 +2805,7 @@
       </c>
       <c r="G160" s="1"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>168</v>
       </c>
@@ -2831,7 +2814,7 @@
       </c>
       <c r="G161" s="1"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>169</v>
       </c>
@@ -2840,7 +2823,7 @@
       </c>
       <c r="G162" s="1"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>170</v>
       </c>
@@ -2849,7 +2832,7 @@
       </c>
       <c r="G163" s="1"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>171</v>
       </c>
@@ -2858,7 +2841,7 @@
       </c>
       <c r="G164" s="1"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>172</v>
       </c>
@@ -2867,7 +2850,7 @@
       </c>
       <c r="G165" s="1"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>173</v>
       </c>
@@ -2876,7 +2859,7 @@
       </c>
       <c r="G166" s="1"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>174</v>
       </c>
@@ -2885,7 +2868,7 @@
       </c>
       <c r="G167" s="1"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>175</v>
       </c>
@@ -2894,7 +2877,7 @@
       </c>
       <c r="G168" s="1"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>176</v>
       </c>
@@ -2903,7 +2886,7 @@
       </c>
       <c r="G169" s="2"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>177</v>
       </c>
@@ -2912,7 +2895,7 @@
       </c>
       <c r="G170" s="2"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>178</v>
       </c>
@@ -2921,7 +2904,7 @@
       </c>
       <c r="G171" s="2"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>179</v>
       </c>
@@ -2930,7 +2913,7 @@
       </c>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>180</v>
       </c>
@@ -2939,7 +2922,7 @@
       </c>
       <c r="G173" s="2"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>181</v>
       </c>
@@ -2948,7 +2931,7 @@
       </c>
       <c r="G174" s="2"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>182</v>
       </c>
@@ -2957,7 +2940,7 @@
       </c>
       <c r="G175" s="2"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>183</v>
       </c>
@@ -2965,7 +2948,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>184</v>
       </c>
@@ -2974,7 +2957,7 @@
       </c>
       <c r="G177" s="2"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>185</v>
       </c>
@@ -2983,7 +2966,7 @@
       </c>
       <c r="G178" s="2"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>186</v>
       </c>
@@ -2992,7 +2975,7 @@
       </c>
       <c r="G179" s="2"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>187</v>
       </c>
@@ -3000,7 +2983,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>188</v>
       </c>
@@ -3009,7 +2992,7 @@
       </c>
       <c r="G181" s="2"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>189</v>
       </c>
@@ -3018,7 +3001,7 @@
       </c>
       <c r="G182" s="2"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>190</v>
       </c>
@@ -3027,7 +3010,7 @@
       </c>
       <c r="G183" s="2"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>191</v>
       </c>
@@ -3036,7 +3019,7 @@
       </c>
       <c r="G184" s="2"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>192</v>
       </c>
@@ -3045,7 +3028,7 @@
       </c>
       <c r="G185" s="1"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>193</v>
       </c>
@@ -3054,7 +3037,7 @@
       </c>
       <c r="G186" s="1"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>194</v>
       </c>
@@ -3063,7 +3046,7 @@
       </c>
       <c r="G187" s="1"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>195</v>
       </c>
@@ -3072,7 +3055,7 @@
       </c>
       <c r="G188" s="1"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>196</v>
       </c>
@@ -3081,7 +3064,7 @@
       </c>
       <c r="G189" s="2"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>197</v>
       </c>
@@ -3090,7 +3073,7 @@
       </c>
       <c r="G190" s="2"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>198</v>
       </c>
@@ -3099,7 +3082,7 @@
       </c>
       <c r="G191" s="2"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>199</v>
       </c>
@@ -3107,7 +3090,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>15</v>
       </c>
@@ -3116,7 +3099,7 @@
       </c>
       <c r="G193" s="1"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>17</v>
       </c>
@@ -3125,7 +3108,7 @@
       </c>
       <c r="G194" s="1"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>18</v>
       </c>
@@ -3134,7 +3117,7 @@
       </c>
       <c r="G195" s="1"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>19</v>
       </c>
@@ -3143,7 +3126,7 @@
       </c>
       <c r="G196" s="1"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>200</v>
       </c>
@@ -3152,7 +3135,7 @@
       </c>
       <c r="G197" s="1"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>201</v>
       </c>
@@ -3161,7 +3144,7 @@
       </c>
       <c r="G198" s="1"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>202</v>
       </c>
@@ -3170,7 +3153,7 @@
       </c>
       <c r="G199" s="1"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>203</v>
       </c>
@@ -3179,7 +3162,7 @@
       </c>
       <c r="G200" s="1"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>204</v>
       </c>
@@ -3188,7 +3171,7 @@
       </c>
       <c r="G201" s="1"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>205</v>
       </c>
@@ -3197,7 +3180,7 @@
       </c>
       <c r="G202" s="1"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>206</v>
       </c>
@@ -3206,7 +3189,7 @@
       </c>
       <c r="G203" s="1"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>207</v>
       </c>
@@ -3215,7 +3198,7 @@
       </c>
       <c r="G204" s="1"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>208</v>
       </c>
@@ -3224,7 +3207,7 @@
       </c>
       <c r="G205" s="2"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>209</v>
       </c>
@@ -3233,7 +3216,7 @@
       </c>
       <c r="G206" s="2"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>210</v>
       </c>
@@ -3242,7 +3225,7 @@
       </c>
       <c r="G207" s="2"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>211</v>
       </c>
@@ -3250,7 +3233,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>212</v>
       </c>
@@ -3259,7 +3242,7 @@
       </c>
       <c r="G209" s="1"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>213</v>
       </c>
@@ -3268,7 +3251,7 @@
       </c>
       <c r="G210" s="1"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>214</v>
       </c>
@@ -3277,7 +3260,7 @@
       </c>
       <c r="G211" s="1"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>215</v>
       </c>
@@ -3286,7 +3269,7 @@
       </c>
       <c r="G212" s="1"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>216</v>
       </c>
@@ -3295,7 +3278,7 @@
       </c>
       <c r="G213" s="1"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>217</v>
       </c>
@@ -3304,7 +3287,7 @@
       </c>
       <c r="G214" s="1"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>218</v>
       </c>
@@ -3313,7 +3296,7 @@
       </c>
       <c r="G215" s="1"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>219</v>
       </c>
@@ -3322,7 +3305,7 @@
       </c>
       <c r="G216" s="1"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>220</v>
       </c>
@@ -3331,7 +3314,7 @@
       </c>
       <c r="G217" s="2"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>221</v>
       </c>
@@ -3340,7 +3323,7 @@
       </c>
       <c r="G218" s="2"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>222</v>
       </c>
@@ -3349,7 +3332,7 @@
       </c>
       <c r="G219" s="2"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>223</v>
       </c>
@@ -3358,7 +3341,7 @@
       </c>
       <c r="G220" s="2"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>224</v>
       </c>
@@ -3367,7 +3350,7 @@
       </c>
       <c r="G221" s="1"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>225</v>
       </c>
@@ -3376,7 +3359,7 @@
       </c>
       <c r="G222" s="1"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>226</v>
       </c>
@@ -3385,7 +3368,7 @@
       </c>
       <c r="G223" s="1"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>227</v>
       </c>
@@ -3394,7 +3377,7 @@
       </c>
       <c r="G224" s="1"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>228</v>
       </c>
@@ -3403,7 +3386,7 @@
       </c>
       <c r="G225" s="2"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>229</v>
       </c>
@@ -3412,7 +3395,7 @@
       </c>
       <c r="G226" s="2"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>230</v>
       </c>
@@ -3421,7 +3404,7 @@
       </c>
       <c r="G227" s="2"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>231</v>
       </c>
@@ -3429,7 +3412,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>232</v>
       </c>
@@ -3438,7 +3421,7 @@
       </c>
       <c r="G229" s="2"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>233</v>
       </c>
@@ -3447,7 +3430,7 @@
       </c>
       <c r="G230" s="2"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>234</v>
       </c>
@@ -3456,7 +3439,7 @@
       </c>
       <c r="G231" s="2"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>235</v>
       </c>
@@ -3465,7 +3448,7 @@
       </c>
       <c r="G232" s="2"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>236</v>
       </c>
@@ -3474,7 +3457,7 @@
       </c>
       <c r="G233" s="1"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>237</v>
       </c>
@@ -3483,7 +3466,7 @@
       </c>
       <c r="G234" s="1"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>238</v>
       </c>
@@ -3492,7 +3475,7 @@
       </c>
       <c r="G235" s="1"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>239</v>
       </c>
@@ -3501,7 +3484,7 @@
       </c>
       <c r="G236" s="1"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>240</v>
       </c>
@@ -3509,7 +3492,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>242</v>
       </c>
@@ -3517,7 +3500,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>244</v>
       </c>
@@ -3525,7 +3508,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>246</v>
       </c>
@@ -3533,7 +3516,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>248</v>
       </c>
@@ -3541,7 +3524,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>250</v>
       </c>
@@ -3549,7 +3532,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>252</v>
       </c>
@@ -3557,7 +3540,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>254</v>
       </c>
@@ -3565,7 +3548,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>256</v>
       </c>
@@ -3573,7 +3556,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>258</v>
       </c>
@@ -3581,7 +3564,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>260</v>
       </c>
@@ -3589,274 +3572,250 @@
         <v>261</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
+        <v>282</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B248" s="2" t="s">
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
+      <c r="B249" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B249" s="2" t="s">
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
+      <c r="B250" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
         <v>266</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B251" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
+      <c r="B252" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>268</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>270</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>271</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>272</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G256" s="2"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>283</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G257" s="2"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>284</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>285</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G259" s="2"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>295</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F260" s="2"/>
+      <c r="G260" s="2"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>286</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>287</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
         <v>288</v>
       </c>
-      <c r="B251" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>269</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>271</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>272</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
+      <c r="B263" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E263" s="2"/>
+      <c r="G263" s="2"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>289</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E264" s="2"/>
+      <c r="G264" s="2"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>290</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>291</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>292</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>293</v>
+      </c>
+      <c r="B268" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
         <v>273</v>
       </c>
-      <c r="B255" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
+      <c r="B269" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B256" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>276</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>277</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>278</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="G259" s="2"/>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>289</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="G260" s="2"/>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>290</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>291</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="G262" s="2"/>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>301</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F263" s="2"/>
-      <c r="G263" s="2"/>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>292</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>293</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>294</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E266" s="2"/>
-      <c r="G266" s="2"/>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>295</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E267" s="2"/>
-      <c r="G267" s="2"/>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>296</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
-        <v>297</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>298</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>299</v>
-      </c>
-      <c r="B271" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>279</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B270" s="2"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B271" s="2"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B272" s="2"/>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B273" s="2"/>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B274" s="2"/>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B275" s="2"/>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B276" s="2"/>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B277" s="2"/>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B278" s="2"/>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B279" s="2"/>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B280" s="2"/>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B281" s="2"/>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B282" s="2"/>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B283" s="2"/>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B284" s="2"/>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B285" s="2"/>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B286" s="2"/>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B287" s="2"/>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B288" s="2"/>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B289" s="2"/>
-    </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B290" s="2"/>
-    </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B291" s="2"/>
-    </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B292" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FRR_with_ATP_synthase_Model_Kramer/LaiskReactions1.xlsx
+++ b/FRR_with_ATP_synthase_Model_Kramer/LaiskReactions1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/Laisk-PSII/FRR_with_ATP_synthase_Model_Kramer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2B41C6AC-2D7A-D448-BE2A-542683996646}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FB96F026-B55C-9945-A7AC-AFB1DCBF9D67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="11280" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4220" yWindow="460" windowWidth="11280" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="544" uniqueCount="302">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="536" uniqueCount="294">
   <si>
     <t xml:space="preserve">S0YoPoAo + PQ -&gt; S0YoPoAoBoo </t>
   </si>
@@ -815,33 +815,12 @@
     <t>kb6f/kEb6f</t>
   </si>
   <si>
-    <t xml:space="preserve">ATP -&gt; ADP </t>
-  </si>
-  <si>
-    <t>kcbb_ATP</t>
-  </si>
-  <si>
-    <t>NADPH -&gt; NADP</t>
-  </si>
-  <si>
-    <t>kcbb_NADPH</t>
-  </si>
-  <si>
-    <t>9 ATP + 6 NADPH -&gt; 9 ADP + 6 NADP</t>
-  </si>
-  <si>
-    <t>kcbb</t>
-  </si>
-  <si>
     <t>2 Hs + PQ + 2 FDr -&gt; 2 Hl + PQH2 + 2 FDo</t>
   </si>
   <si>
     <t>kcyc1</t>
   </si>
   <si>
-    <t>kHleak</t>
-  </si>
-  <si>
     <t>S2YrPrAr -&gt; S1YrPrAo</t>
   </si>
   <si>
@@ -897,9 +876,6 @@
   </si>
   <si>
     <t>kFTr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hs -&gt; Hl </t>
   </si>
   <si>
     <t>SynF + SynP -&gt; SynFP</t>
@@ -1379,10 +1355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G292"/>
+  <dimension ref="A1:G291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" zoomScale="130" workbookViewId="0">
-      <selection activeCell="B271" sqref="B271"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A265" sqref="A265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3602,60 +3578,60 @@
         <v>264</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>275</v>
@@ -3663,140 +3639,117 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
+        <v>282</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
+        <v>283</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
+        <v>293</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="G259" s="2"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G260" s="2"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G262" s="2"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F263" s="2"/>
       <c r="G263" s="2"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
+        <v>288</v>
+      </c>
+      <c r="B264" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E266" s="2"/>
       <c r="G266" s="2"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>295</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
+      </c>
+      <c r="B267" t="s">
+        <v>279</v>
       </c>
       <c r="E267" s="2"/>
       <c r="G267" s="2"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
-        <v>297</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>298</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>287</v>
-      </c>
+      <c r="B269" s="2"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>299</v>
-      </c>
-      <c r="B271" t="s">
-        <v>286</v>
-      </c>
+      <c r="B271" s="2"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>279</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>280</v>
-      </c>
+      <c r="B272" s="2"/>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B273" s="2"/>
@@ -3854,9 +3807,6 @@
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B291" s="2"/>
-    </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B292" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FRR_with_ATP_synthase_Model_Kramer/LaiskReactions1.xlsx
+++ b/FRR_with_ATP_synthase_Model_Kramer/LaiskReactions1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Apostolos\Documents\GitHub\Laisk-PSII\FRR_with_ATP_synthase_Model_Kramer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E8E20AA3-71C3-4FFB-B824-4BBD907E9D3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5E6E3417-C943-4323-AB85-20D419172C83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1364,8 +1364,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" zoomScale="130" workbookViewId="0">
-      <selection activeCell="A267" sqref="A267"/>
+    <sheetView tabSelected="1" topLeftCell="A255" zoomScale="130" workbookViewId="0">
+      <selection activeCell="E268" sqref="E268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/FRR_with_ATP_synthase_Model_Kramer/LaiskReactions1.xlsx
+++ b/FRR_with_ATP_synthase_Model_Kramer/LaiskReactions1.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Apostolos\Documents\GitHub\Laisk-PSII\FRR_with_ATP_synthase_Model_Kramer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/Laisk-PSII/FRR_with_ATP_synthase_Model_Kramer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5E6E3417-C943-4323-AB85-20D419172C83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9166E3DC-4A73-B441-B565-6B3217F43961}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -1364,26 +1363,26 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" zoomScale="130" workbookViewId="0">
-      <selection activeCell="E268" sqref="E268"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A266" sqref="A266"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.69921875" customWidth="1"/>
-    <col min="6" max="6" width="34.796875" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="6" max="6" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1392,7 +1391,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1401,7 +1400,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1410,52 +1409,52 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1464,7 +1463,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1473,7 +1472,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1482,16 +1481,16 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1500,7 +1499,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1509,7 +1508,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1518,7 +1517,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1527,7 +1526,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1536,7 +1535,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1545,7 +1544,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1554,7 +1553,7 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1563,7 +1562,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1572,79 +1571,87 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="E24" s="1"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E27" s="2"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E28" s="2"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E29" s="2"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E30" s="2"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1653,7 +1660,7 @@
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1662,7 +1669,7 @@
       </c>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1671,7 +1678,7 @@
       </c>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1680,7 +1687,7 @@
       </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1689,7 +1696,7 @@
       </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -1698,7 +1705,7 @@
       </c>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -1707,7 +1714,7 @@
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1716,7 +1723,7 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -1725,7 +1732,7 @@
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -1733,7 +1740,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -1742,7 +1749,7 @@
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -1751,115 +1758,127 @@
       </c>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>51</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="E43" s="2"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>52</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="E44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>53</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>54</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>55</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E47" s="2"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>56</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E48" s="2"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E49" s="2"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>58</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E50" s="2"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>60</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>61</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="E53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>62</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="E54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -1868,7 +1887,7 @@
       </c>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -1876,7 +1895,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -1885,7 +1904,7 @@
       </c>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -1894,7 +1913,7 @@
       </c>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -1903,7 +1922,7 @@
       </c>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -1911,7 +1930,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -1920,7 +1939,7 @@
       </c>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>70</v>
       </c>
@@ -1929,7 +1948,7 @@
       </c>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -1938,7 +1957,7 @@
       </c>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -1947,7 +1966,7 @@
       </c>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -1956,7 +1975,7 @@
       </c>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -1965,7 +1984,7 @@
       </c>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>75</v>
       </c>
@@ -1974,7 +1993,7 @@
       </c>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -1983,7 +2002,7 @@
       </c>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -1992,7 +2011,7 @@
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>78</v>
       </c>
@@ -2001,7 +2020,7 @@
       </c>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -2010,7 +2029,7 @@
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>80</v>
       </c>
@@ -2019,7 +2038,7 @@
       </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -2028,7 +2047,7 @@
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>83</v>
       </c>
@@ -2037,7 +2056,7 @@
       </c>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -2046,7 +2065,7 @@
       </c>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>85</v>
       </c>
@@ -2055,114 +2074,126 @@
       </c>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>86</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="E77" s="2"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>88</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="E78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>89</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="E79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>90</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="E80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>91</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="E81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>92</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="E82" s="2"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E83" s="2"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>94</v>
       </c>
       <c r="B84" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>95</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>96</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>97</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E87" s="2"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>98</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E88" s="2"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>99</v>
       </c>
@@ -2171,7 +2202,7 @@
       </c>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>100</v>
       </c>
@@ -2180,7 +2211,7 @@
       </c>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>101</v>
       </c>
@@ -2189,7 +2220,7 @@
       </c>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>102</v>
       </c>
@@ -2197,7 +2228,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -2206,7 +2237,7 @@
       </c>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -2215,7 +2246,7 @@
       </c>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -2224,7 +2255,7 @@
       </c>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>106</v>
       </c>
@@ -2233,7 +2264,7 @@
       </c>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>107</v>
       </c>
@@ -2242,7 +2273,7 @@
       </c>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>108</v>
       </c>
@@ -2251,7 +2282,7 @@
       </c>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>109</v>
       </c>
@@ -2260,7 +2291,7 @@
       </c>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>110</v>
       </c>
@@ -2269,7 +2300,7 @@
       </c>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>111</v>
       </c>
@@ -2278,7 +2309,7 @@
       </c>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>112</v>
       </c>
@@ -2287,7 +2318,7 @@
       </c>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>113</v>
       </c>
@@ -2296,7 +2327,7 @@
       </c>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>114</v>
       </c>
@@ -2304,7 +2335,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>115</v>
       </c>
@@ -2313,7 +2344,7 @@
       </c>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>116</v>
       </c>
@@ -2322,124 +2353,137 @@
       </c>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>117</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E107" s="2"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>118</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>119</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E109" s="1"/>
       <c r="G109" s="2"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>120</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E110" s="1"/>
       <c r="G110" s="2"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>121</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E111" s="2"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>122</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E112" s="2"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>123</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E113" s="2"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>124</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E114" s="2"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>125</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>126</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>127</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E117" s="2"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>129</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E118" s="2"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>130</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E119" s="1"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>131</v>
       </c>
@@ -2448,7 +2492,7 @@
       </c>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>132</v>
       </c>
@@ -2457,7 +2501,7 @@
       </c>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>133</v>
       </c>
@@ -2466,7 +2510,7 @@
       </c>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>134</v>
       </c>
@@ -2475,7 +2519,7 @@
       </c>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>135</v>
       </c>
@@ -2484,7 +2528,7 @@
       </c>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>136</v>
       </c>
@@ -2493,7 +2537,7 @@
       </c>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>136</v>
       </c>
@@ -2502,7 +2546,7 @@
       </c>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>136</v>
       </c>
@@ -2511,7 +2555,7 @@
       </c>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>136</v>
       </c>
@@ -2520,7 +2564,7 @@
       </c>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>137</v>
       </c>
@@ -2529,7 +2573,7 @@
       </c>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>138</v>
       </c>
@@ -2538,7 +2582,7 @@
       </c>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>139</v>
       </c>
@@ -2547,7 +2591,7 @@
       </c>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>140</v>
       </c>
@@ -2556,7 +2600,7 @@
       </c>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>141</v>
       </c>
@@ -2565,7 +2609,7 @@
       </c>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>142</v>
       </c>
@@ -2574,7 +2618,7 @@
       </c>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>143</v>
       </c>
@@ -2583,7 +2627,7 @@
       </c>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>144</v>
       </c>
@@ -2592,7 +2636,7 @@
       </c>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>145</v>
       </c>
@@ -2601,7 +2645,7 @@
       </c>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>146</v>
       </c>
@@ -2610,7 +2654,7 @@
       </c>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>147</v>
       </c>
@@ -2619,7 +2663,7 @@
       </c>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>148</v>
       </c>
@@ -2627,7 +2671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>149</v>
       </c>
@@ -2636,7 +2680,7 @@
       </c>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>150</v>
       </c>
@@ -2645,7 +2689,7 @@
       </c>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>151</v>
       </c>
@@ -2654,7 +2698,7 @@
       </c>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>152</v>
       </c>
@@ -2663,7 +2707,7 @@
       </c>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>153</v>
       </c>
@@ -2672,7 +2716,7 @@
       </c>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>154</v>
       </c>
@@ -2681,7 +2725,7 @@
       </c>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>153</v>
       </c>
@@ -2690,7 +2734,7 @@
       </c>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>155</v>
       </c>
@@ -2698,7 +2742,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>156</v>
       </c>
@@ -2707,7 +2751,7 @@
       </c>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>158</v>
       </c>
@@ -2716,7 +2760,7 @@
       </c>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>159</v>
       </c>
@@ -2725,7 +2769,7 @@
       </c>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>160</v>
       </c>
@@ -2734,7 +2778,7 @@
       </c>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>161</v>
       </c>
@@ -2743,7 +2787,7 @@
       </c>
       <c r="G153" s="2"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>162</v>
       </c>
@@ -2752,7 +2796,7 @@
       </c>
       <c r="G154" s="2"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>161</v>
       </c>
@@ -2761,7 +2805,7 @@
       </c>
       <c r="G155" s="2"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>163</v>
       </c>
@@ -2769,7 +2813,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>164</v>
       </c>
@@ -2778,7 +2822,7 @@
       </c>
       <c r="G157" s="1"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>165</v>
       </c>
@@ -2787,7 +2831,7 @@
       </c>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>166</v>
       </c>
@@ -2796,7 +2840,7 @@
       </c>
       <c r="G159" s="1"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>167</v>
       </c>
@@ -2805,7 +2849,7 @@
       </c>
       <c r="G160" s="1"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>168</v>
       </c>
@@ -2814,7 +2858,7 @@
       </c>
       <c r="G161" s="1"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>169</v>
       </c>
@@ -2823,7 +2867,7 @@
       </c>
       <c r="G162" s="1"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>170</v>
       </c>
@@ -2832,7 +2876,7 @@
       </c>
       <c r="G163" s="1"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>171</v>
       </c>
@@ -2841,7 +2885,7 @@
       </c>
       <c r="G164" s="1"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>172</v>
       </c>
@@ -2850,7 +2894,7 @@
       </c>
       <c r="G165" s="1"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>173</v>
       </c>
@@ -2859,7 +2903,7 @@
       </c>
       <c r="G166" s="1"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>174</v>
       </c>
@@ -2868,7 +2912,7 @@
       </c>
       <c r="G167" s="1"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>175</v>
       </c>
@@ -2877,7 +2921,7 @@
       </c>
       <c r="G168" s="1"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>176</v>
       </c>
@@ -2886,7 +2930,7 @@
       </c>
       <c r="G169" s="2"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>177</v>
       </c>
@@ -2895,7 +2939,7 @@
       </c>
       <c r="G170" s="2"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>178</v>
       </c>
@@ -2904,7 +2948,7 @@
       </c>
       <c r="G171" s="2"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>179</v>
       </c>
@@ -2913,7 +2957,7 @@
       </c>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>180</v>
       </c>
@@ -2922,7 +2966,7 @@
       </c>
       <c r="G173" s="2"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>181</v>
       </c>
@@ -2931,7 +2975,7 @@
       </c>
       <c r="G174" s="2"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>182</v>
       </c>
@@ -2940,7 +2984,7 @@
       </c>
       <c r="G175" s="2"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>183</v>
       </c>
@@ -2948,7 +2992,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>184</v>
       </c>
@@ -2957,7 +3001,7 @@
       </c>
       <c r="G177" s="2"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>185</v>
       </c>
@@ -2966,7 +3010,7 @@
       </c>
       <c r="G178" s="2"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>186</v>
       </c>
@@ -2975,7 +3019,7 @@
       </c>
       <c r="G179" s="2"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>187</v>
       </c>
@@ -2983,123 +3027,136 @@
         <v>27</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>188</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E181" s="2"/>
       <c r="G181" s="2"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>189</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E182" s="1"/>
       <c r="G182" s="2"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>190</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E183" s="1"/>
       <c r="G183" s="2"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>191</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E184" s="1"/>
       <c r="G184" s="2"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>192</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="E185" s="2"/>
       <c r="G185" s="1"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>193</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="E186" s="2"/>
       <c r="G186" s="1"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>194</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="E187" s="2"/>
       <c r="G187" s="1"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>195</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="E188" s="2"/>
       <c r="G188" s="1"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>196</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="E189" s="1"/>
       <c r="G189" s="2"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>197</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="E190" s="1"/>
       <c r="G190" s="2"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>198</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E191" s="2"/>
       <c r="G191" s="2"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>199</v>
       </c>
       <c r="B192" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E192" s="2"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>15</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E193" s="1"/>
       <c r="G193" s="1"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>17</v>
       </c>
@@ -3108,7 +3165,7 @@
       </c>
       <c r="G194" s="1"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>18</v>
       </c>
@@ -3117,7 +3174,7 @@
       </c>
       <c r="G195" s="1"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>19</v>
       </c>
@@ -3126,7 +3183,7 @@
       </c>
       <c r="G196" s="1"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>200</v>
       </c>
@@ -3135,7 +3192,7 @@
       </c>
       <c r="G197" s="1"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>201</v>
       </c>
@@ -3144,7 +3201,7 @@
       </c>
       <c r="G198" s="1"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>202</v>
       </c>
@@ -3153,7 +3210,7 @@
       </c>
       <c r="G199" s="1"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>203</v>
       </c>
@@ -3162,7 +3219,7 @@
       </c>
       <c r="G200" s="1"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>204</v>
       </c>
@@ -3171,7 +3228,7 @@
       </c>
       <c r="G201" s="1"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>205</v>
       </c>
@@ -3180,7 +3237,7 @@
       </c>
       <c r="G202" s="1"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>206</v>
       </c>
@@ -3189,7 +3246,7 @@
       </c>
       <c r="G203" s="1"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>207</v>
       </c>
@@ -3198,7 +3255,7 @@
       </c>
       <c r="G204" s="1"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>208</v>
       </c>
@@ -3207,7 +3264,7 @@
       </c>
       <c r="G205" s="2"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>209</v>
       </c>
@@ -3216,7 +3273,7 @@
       </c>
       <c r="G206" s="2"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>210</v>
       </c>
@@ -3225,7 +3282,7 @@
       </c>
       <c r="G207" s="2"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>211</v>
       </c>
@@ -3233,7 +3290,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>212</v>
       </c>
@@ -3242,7 +3299,7 @@
       </c>
       <c r="G209" s="1"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>213</v>
       </c>
@@ -3251,7 +3308,7 @@
       </c>
       <c r="G210" s="1"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>214</v>
       </c>
@@ -3260,7 +3317,7 @@
       </c>
       <c r="G211" s="1"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>215</v>
       </c>
@@ -3269,7 +3326,7 @@
       </c>
       <c r="G212" s="1"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>216</v>
       </c>
@@ -3278,7 +3335,7 @@
       </c>
       <c r="G213" s="1"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>217</v>
       </c>
@@ -3287,7 +3344,7 @@
       </c>
       <c r="G214" s="1"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>218</v>
       </c>
@@ -3296,7 +3353,7 @@
       </c>
       <c r="G215" s="1"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>219</v>
       </c>
@@ -3305,7 +3362,7 @@
       </c>
       <c r="G216" s="1"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>220</v>
       </c>
@@ -3314,7 +3371,7 @@
       </c>
       <c r="G217" s="2"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>221</v>
       </c>
@@ -3323,7 +3380,7 @@
       </c>
       <c r="G218" s="2"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>222</v>
       </c>
@@ -3332,7 +3389,7 @@
       </c>
       <c r="G219" s="2"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>223</v>
       </c>
@@ -3341,7 +3398,7 @@
       </c>
       <c r="G220" s="2"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>224</v>
       </c>
@@ -3350,7 +3407,7 @@
       </c>
       <c r="G221" s="1"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>225</v>
       </c>
@@ -3359,7 +3416,7 @@
       </c>
       <c r="G222" s="1"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>226</v>
       </c>
@@ -3368,7 +3425,7 @@
       </c>
       <c r="G223" s="1"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>227</v>
       </c>
@@ -3377,7 +3434,7 @@
       </c>
       <c r="G224" s="1"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>228</v>
       </c>
@@ -3386,7 +3443,7 @@
       </c>
       <c r="G225" s="2"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>229</v>
       </c>
@@ -3395,7 +3452,7 @@
       </c>
       <c r="G226" s="2"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>230</v>
       </c>
@@ -3404,7 +3461,7 @@
       </c>
       <c r="G227" s="2"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>231</v>
       </c>
@@ -3412,7 +3469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>232</v>
       </c>
@@ -3421,7 +3478,7 @@
       </c>
       <c r="G229" s="2"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>233</v>
       </c>
@@ -3430,7 +3487,7 @@
       </c>
       <c r="G230" s="2"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>234</v>
       </c>
@@ -3439,7 +3496,7 @@
       </c>
       <c r="G231" s="2"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>235</v>
       </c>
@@ -3448,7 +3505,7 @@
       </c>
       <c r="G232" s="2"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>236</v>
       </c>
@@ -3457,138 +3514,154 @@
       </c>
       <c r="G233" s="1"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>237</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C234" s="2"/>
       <c r="G234" s="1"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>238</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C235" s="1"/>
       <c r="G235" s="1"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>239</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C236" s="1"/>
       <c r="G236" s="1"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>240</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C237" s="1"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>242</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C238" s="2"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>244</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C239" s="2"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>246</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C240" s="2"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>248</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C241" s="2"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>250</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C242" s="1"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>252</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C243" s="1"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>254</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C244" s="2"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>256</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C245" s="2"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>258</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C246" s="1"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>260</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C247" s="2"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>282</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>263</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C249" s="2"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>265</v>
       </c>
@@ -3596,7 +3669,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>266</v>
       </c>
@@ -3604,7 +3677,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>267</v>
       </c>
@@ -3612,136 +3685,151 @@
         <v>264</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>268</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C253" s="2"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>270</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C254" s="2"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>271</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C255" s="2"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>272</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>269</v>
       </c>
+      <c r="C256" s="2"/>
       <c r="G256" s="2"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>283</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>276</v>
       </c>
+      <c r="C257" s="2"/>
       <c r="G257" s="2"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>284</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C258" s="2"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>285</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>278</v>
       </c>
+      <c r="C259" s="2"/>
       <c r="G259" s="2"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>295</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>279</v>
       </c>
+      <c r="C260" s="2"/>
       <c r="F260" s="2"/>
       <c r="G260" s="2"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>286</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C261" s="2"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>287</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C262" s="2"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>288</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>276</v>
       </c>
+      <c r="C263" s="2"/>
       <c r="E263" s="2"/>
       <c r="G263" s="2"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>289</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>277</v>
       </c>
+      <c r="C264" s="2"/>
       <c r="E264" s="2"/>
       <c r="G264" s="2"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>290</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C265" s="2"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>291</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C266" s="2"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>292</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C267" s="2"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>293</v>
       </c>
@@ -3749,72 +3837,73 @@
         <v>280</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>273</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C269" s="2"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B270" s="2"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B271" s="2"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B272" s="2"/>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B273" s="2"/>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B274" s="2"/>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B275" s="2"/>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B276" s="2"/>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B277" s="2"/>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B278" s="2"/>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B279" s="2"/>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B280" s="2"/>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B281" s="2"/>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B282" s="2"/>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B283" s="2"/>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B284" s="2"/>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B285" s="2"/>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B286" s="2"/>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B287" s="2"/>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B288" s="2"/>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B289" s="2"/>
     </row>
   </sheetData>
